--- a/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/jet.menu.xlsx
+++ b/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/jet.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951D5F7-9C18-3644-8670-2886AFA42E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97CD8B7-E7A4-8C44-91F4-021AFC1E4416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="-3300" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="35000" yWindow="-5040" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -100,21 +103,12 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>SIDE-MENU</t>
-  </si>
-  <si>
     <t>配置数据</t>
   </si>
   <si>
     <t>metadata</t>
   </si>
   <si>
-    <t>a680b92e-2f79-43e1-b37b-3f9705c29199</t>
-  </si>
-  <si>
-    <t>后台任务</t>
-  </si>
-  <si>
     <t>/system/job</t>
   </si>
   <si>
@@ -122,16 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIDE-MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</t>
-  </si>
-  <si>
-    <t>8121a655-5a10-4673-a5fa-38bd171deee6</t>
-  </si>
-  <si>
     <t>zero.develop.integration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,11 +123,301 @@
     <t>api</t>
   </si>
   <si>
-    <t>接口设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/epic/integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV-MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPAND</t>
+  </si>
+  <si>
+    <t>hdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.channel.atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/channel/atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/channel/integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.channel.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.channel.mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/channel/mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「旧」接口设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.api.static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.api.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.api.console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intercation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.job.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口管理/发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理/发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务看板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codepen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code-sandbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sketch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.job.schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.api.management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.job.management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.job.dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8f670248-c097-4f88-bb3f-e82c7ea1d754</t>
+  </si>
+  <si>
+    <t>aa750263-7928-4a53-be77-d48bfad3b44f</t>
+  </si>
+  <si>
+    <t>6c541311-f5f6-4877-8d3f-c5600817ed01</t>
+  </si>
+  <si>
+    <t>ae39a5a9-1dcd-4265-a617-b23ea4c11e5e</t>
+  </si>
+  <si>
+    <t>c4925471-77c0-4fe3-91ae-500f6c243a48</t>
+  </si>
+  <si>
+    <t>8b3c0851-0b72-4e34-87e5-24c608e361d6</t>
+  </si>
+  <si>
+    <t>e11413b9-5812-4319-8278-00b421a25738</t>
+  </si>
+  <si>
+    <t>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</t>
+  </si>
+  <si>
+    <t>e362e929-b3eb-4f75-aebb-2fc5abe1a0eb</t>
+  </si>
+  <si>
+    <t>66245c69-a451-48dd-91d5-3ba1de836bcc</t>
+  </si>
+  <si>
+    <t>c6609af4-51bf-4fcd-a3e4-4359b03ee94f</t>
+  </si>
+  <si>
+    <t>95f10cac-8523-4015-8422-1a02308d2a51</t>
+  </si>
+  <si>
+    <t>403b7044-9f7a-44d7-9629-6ea54432b1e9</t>
+  </si>
+  <si>
+    <t>9ab0446d-f60b-4559-aeb1-75b1f2640944</t>
+  </si>
+  <si>
+    <t>f7d7f134-ad46-49cc-b2bc-02ff62776911</t>
+  </si>
+  <si>
+    <t>ff428be1-f33a-4e1e-aea3-9fe3554781ea</t>
+  </si>
+  <si>
+    <t>d6c2debb-2c8b-4771-b675-02613fac7b83</t>
+  </si>
+  <si>
+    <t>「旧」后台任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/channel/service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.channel.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/job/schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/job/management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/job/integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/job/dashboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +479,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -250,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -273,11 +555,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +618,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A5:XFD14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -671,16 +972,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
@@ -711,7 +1012,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -743,70 +1044,528 @@
         <v>19</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>A$12</f>
+        <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="9">
-        <v>1010</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="17">
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>A$17</f>
+        <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9">
-        <v>1011</v>
+        <v>2010</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>A$7</f>
+        <v>6c541311-f5f6-4877-8d3f-c5600817ed01</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" ref="B9:B11" si="0">A$7</f>
+        <v>6c541311-f5f6-4877-8d3f-c5600817ed01</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>6c541311-f5f6-4877-8d3f-c5600817ed01</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>6c541311-f5f6-4877-8d3f-c5600817ed01</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6">
+        <v>32000</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>A$12</f>
+        <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" ref="B14:B16" si="1">A$12</f>
+        <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6">
+        <v>32000</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f>A$17</f>
+        <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f t="shared" ref="B19:B21" si="2">A$17</f>
+        <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/jet.menu.xlsx
+++ b/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/jet.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97CD8B7-E7A4-8C44-91F4-021AFC1E4416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B645AE0A-09A3-C04F-9919-0264DD58CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35000" yWindow="-5040" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="38400" yWindow="-5040" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -112,14 +112,6 @@
     <t>/system/job</t>
   </si>
   <si>
-    <t>zero.system.job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.develop.integration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api</t>
   </si>
   <si>
@@ -418,6 +410,14 @@
   </si>
   <si>
     <t>/job/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old.zero.develop.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old.zero.system.job</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,7 +946,7 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1049,14 +1049,14 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>A$12</f>
         <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9">
         <v>2000</v>
@@ -1065,29 +1065,29 @@
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$17</f>
         <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9">
         <v>2010</v>
@@ -1096,10 +1096,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>21</v>
@@ -1113,11 +1113,11 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6">
         <v>30000</v>
@@ -1126,29 +1126,29 @@
         <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>A$7</f>
         <v>6c541311-f5f6-4877-8d3f-c5600817ed01</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9">
         <v>1005</v>
@@ -1157,29 +1157,29 @@
         <v>2</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" ref="B9:B11" si="0">A$7</f>
         <v>6c541311-f5f6-4877-8d3f-c5600817ed01</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9">
         <v>1010</v>
@@ -1188,29 +1188,29 @@
         <v>2</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>6c541311-f5f6-4877-8d3f-c5600817ed01</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9">
         <v>1015</v>
@@ -1219,29 +1219,29 @@
         <v>2</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>6c541311-f5f6-4877-8d3f-c5600817ed01</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9">
         <v>1020</v>
@@ -1250,26 +1250,26 @@
         <v>2</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6">
         <v>32000</v>
@@ -1278,29 +1278,29 @@
         <v>1</v>
       </c>
       <c r="F12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>49</v>
-      </c>
       <c r="I12" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="8" t="str">
         <f>A$12</f>
         <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9">
         <v>1005</v>
@@ -1309,29 +1309,29 @@
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>57</v>
-      </c>
       <c r="I13" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ref="B14:B16" si="1">A$12</f>
         <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="9">
         <v>1010</v>
@@ -1340,29 +1340,29 @@
         <v>2</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="9">
         <v>1015</v>
@@ -1371,29 +1371,29 @@
         <v>2</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>9aec2dd2-72de-4971-ae0d-826a44b6b2bb</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="9">
         <v>1020</v>
@@ -1402,26 +1402,26 @@
         <v>2</v>
       </c>
       <c r="F16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="H16" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="6">
         <v>32000</v>
@@ -1430,29 +1430,29 @@
         <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>A$17</f>
         <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="9">
         <v>1005</v>
@@ -1461,29 +1461,29 @@
         <v>2</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" ref="B19:B21" si="2">A$17</f>
         <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="9">
         <v>1010</v>
@@ -1492,29 +1492,29 @@
         <v>2</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="2"/>
         <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="9">
         <v>1015</v>
@@ -1523,29 +1523,29 @@
         <v>2</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>403b7044-9f7a-44d7-9629-6ea54432b1e9</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="9">
         <v>1020</v>
@@ -1554,16 +1554,16 @@
         <v>2</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" s="9"/>
     </row>

--- a/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/jet.menu.xlsx
+++ b/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/jet.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B645AE0A-09A3-C04F-9919-0264DD58CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC7597-CBBE-824A-ADB5-9FDC6AF2D965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-5040" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="69340" yWindow="-9980" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intercation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +414,10 @@
   </si>
   <si>
     <t>old.zero.system.job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,7 +946,7 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>A$12</f>
@@ -1065,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>48</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$17</f>
@@ -1096,10 +1096,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>21</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
@@ -1141,7 +1141,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>A$7</f>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" ref="B9:B11" si="0">A$7</f>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>35</v>
@@ -1197,13 +1197,13 @@
         <v>49</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="13" t="s">
@@ -1293,7 +1293,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="8" t="str">
         <f>A$12</f>
@@ -1315,16 +1315,16 @@
         <v>53</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ref="B14:B16" si="1">A$12</f>
@@ -1340,22 +1340,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1374,19 +1374,19 @@
         <v>51</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1408,16 +1408,16 @@
         <v>54</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="13" t="s">
@@ -1430,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>30</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>A$17</f>
@@ -1461,22 +1461,22 @@
         <v>2</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" ref="B19:B21" si="2">A$17</f>
@@ -1492,22 +1492,22 @@
         <v>2</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1523,22 +1523,22 @@
         <v>2</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1554,16 +1554,16 @@
         <v>2</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J21" s="9"/>
     </row>
